--- a/Graph_Sparsification/Matlab_Plots/report/douban/histo_distances.xlsx
+++ b/Graph_Sparsification/Matlab_Plots/report/douban/histo_distances.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="asps_Flickr.txt" sheetId="2" r:id="rId1"/>
+    <sheet name="douban.txt" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -374,7 +374,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
